--- a/AppService/Web/QuanLyDuAn/Content/Template/OperationManagement/Report0001_Complaint.xlsx
+++ b/AppService/Web/QuanLyDuAn/Content/Template/OperationManagement/Report0001_Complaint.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TayHo\SystemCore\AppService\Web\QuanLyDuAn\Content\Template\OperationManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B22A282-CA3B-495A-9FFC-F85CCBB6A68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63DC15-B6EB-4F92-895B-5D3A28D5D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="R001" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -143,9 +143,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -160,6 +157,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,40 +460,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AppService/Web/QuanLyDuAn/Content/Template/OperationManagement/Report0001_Complaint.xlsx
+++ b/AppService/Web/QuanLyDuAn/Content/Template/OperationManagement/Report0001_Complaint.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TayHo\SystemCore\AppService\Web\QuanLyDuAn\Content\Template\OperationManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.26\d\duan\Content\Template\OperationManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63DC15-B6EB-4F92-895B-5D3A28D5D0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CB2870-07F5-4509-9FED-C05D1EBB0A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>NGÀY HOÀN THÀNH</t>
+  </si>
+  <si>
+    <t>LOẠI KHIẾU NẠI</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +499,9 @@
       <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
